--- a/files/assesments/thirdround/assesments-peter.xlsx
+++ b/files/assesments/thirdround/assesments-peter.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6681c6b59f5dfa03/Dokumenter/uni/2. semester/epic/files/assesments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanes\OneDrive\Dokumenter\uni\2. semester\epic\files\assesments\secondround\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20505" windowHeight="7545" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Peer  and self assessment" sheetId="2" r:id="rId1"/>
@@ -20,9 +20,6 @@
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,38 +28,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Self assesment</t>
   </si>
   <si>
-    <t>Peer assessment 1</t>
-  </si>
-  <si>
     <t>Peer assessment 9</t>
   </si>
   <si>
-    <t>Peer assessment 8</t>
-  </si>
-  <si>
-    <t>Peer assessment 7</t>
-  </si>
-  <si>
-    <t>Peer assessment 2</t>
-  </si>
-  <si>
-    <t>Peer assessment 3</t>
-  </si>
-  <si>
-    <t>Peer assessment 4</t>
-  </si>
-  <si>
-    <t>Peer assessment 5</t>
-  </si>
-  <si>
-    <t>Peer assessment 6</t>
-  </si>
-  <si>
     <t>Insufficient</t>
   </si>
   <si>
@@ -84,33 +57,9 @@
     <t>Criterion 1 Online collaboration</t>
   </si>
   <si>
-    <t>Criterion 2 Online colaboration</t>
-  </si>
-  <si>
-    <t>Criterion 3 Online collaboration</t>
-  </si>
-  <si>
-    <t>Criterion 4 Online collaboration</t>
-  </si>
-  <si>
-    <t>Criterion 5 Online collaboration</t>
-  </si>
-  <si>
     <t>Criterion 1 International Collaboration</t>
   </si>
   <si>
-    <t>Criterion 2 International Collaboration</t>
-  </si>
-  <si>
-    <t>Criterion 3 International Collaboration</t>
-  </si>
-  <si>
-    <t>Criterion 4 International Collaboration</t>
-  </si>
-  <si>
-    <t>Criterion 5 International Collaboration</t>
-  </si>
-  <si>
     <t>Final reflection</t>
   </si>
   <si>
@@ -126,18 +75,31 @@
     <t>Jacob</t>
   </si>
   <si>
-    <t>Very active in our online meetings, Uploaded relevant articles to github</t>
-  </si>
-  <si>
     <t>Ahmet</t>
   </si>
   <si>
-    <t>Support to others in github, 
-Makeing sure that the git folder is almost clean so it is esay to find stuff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uploaded a lot off research that is relevant for both the danishguys and him
-</t>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnus </t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Morcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel </t>
+  </si>
+  <si>
+    <t>Magnus</t>
+  </si>
+  <si>
+    <t>Alex</t>
   </si>
 </sst>
 </file>
@@ -265,14 +227,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,887 +551,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" customWidth="1"/>
     <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="64.75" customWidth="1"/>
+    <col min="3" max="3" width="64.625" customWidth="1"/>
     <col min="7" max="7" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>34</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
+    <row r="13" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="4"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
+    <row r="24" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="4"/>
-    </row>
-    <row r="60" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="4"/>
-    </row>
-    <row r="63" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="4"/>
-    </row>
-    <row r="64" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="4"/>
-    </row>
-    <row r="65" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="4"/>
-    </row>
-    <row r="66" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="4"/>
-    </row>
-    <row r="67" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="4"/>
-    </row>
-    <row r="68" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="4"/>
-    </row>
-    <row r="69" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="4"/>
-    </row>
-    <row r="70" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="4"/>
-    </row>
-    <row r="71" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="4"/>
-    </row>
-    <row r="72" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="4"/>
-    </row>
-    <row r="75" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="4"/>
-    </row>
-    <row r="77" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="4"/>
-    </row>
-    <row r="78" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="4"/>
-    </row>
-    <row r="79" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="4"/>
-    </row>
-    <row r="80" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="4"/>
-    </row>
-    <row r="81" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="4"/>
-    </row>
-    <row r="82" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="4"/>
-    </row>
-    <row r="83" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="4"/>
-    </row>
-    <row r="84" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="4"/>
-    </row>
-    <row r="88" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="4"/>
-    </row>
-    <row r="89" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="4"/>
-    </row>
-    <row r="90" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="4"/>
-    </row>
-    <row r="91" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="4"/>
-    </row>
-    <row r="92" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="4"/>
-    </row>
-    <row r="93" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="4"/>
-    </row>
-    <row r="94" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B94" s="6"/>
-      <c r="C94" s="4"/>
-    </row>
-    <row r="95" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="6"/>
-      <c r="C95" s="4"/>
-    </row>
-    <row r="96" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="6"/>
-      <c r="C98" s="4"/>
-    </row>
-    <row r="99" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B99" s="6"/>
-      <c r="C99" s="4"/>
-    </row>
-    <row r="100" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B100" s="6"/>
-      <c r="C100" s="4"/>
-    </row>
-    <row r="101" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101" s="6"/>
-      <c r="C101" s="4"/>
-    </row>
-    <row r="102" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B102" s="6"/>
-      <c r="C102" s="4"/>
-    </row>
-    <row r="103" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="4"/>
-    </row>
-    <row r="104" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104" s="6"/>
-      <c r="C104" s="4"/>
-    </row>
-    <row r="105" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B105" s="6"/>
-      <c r="C105" s="4"/>
-    </row>
-    <row r="106" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B106" s="6"/>
-      <c r="C106" s="4"/>
-    </row>
-    <row r="107" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="6"/>
-      <c r="C107" s="4"/>
-    </row>
-    <row r="108" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" s="6"/>
-      <c r="C110" s="4"/>
-    </row>
-    <row r="111" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B111" s="6"/>
-      <c r="C111" s="4"/>
-    </row>
-    <row r="112" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B112" s="6"/>
-      <c r="C112" s="4"/>
-    </row>
-    <row r="113" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B113" s="6"/>
-      <c r="C113" s="4"/>
-    </row>
-    <row r="114" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B114" s="6"/>
-      <c r="C114" s="4"/>
-    </row>
-    <row r="115" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" s="6"/>
-      <c r="C115" s="4"/>
-    </row>
-    <row r="116" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B116" s="6"/>
-      <c r="C116" s="4"/>
-    </row>
-    <row r="117" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B117" s="6"/>
-      <c r="C117" s="4"/>
-    </row>
-    <row r="118" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B118" s="6"/>
-      <c r="C118" s="4"/>
-    </row>
-    <row r="119" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B119" s="6"/>
-      <c r="C119" s="4"/>
-    </row>
-    <row r="120" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-    </row>
-    <row r="122" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B122" s="7"/>
-      <c r="C122" s="8"/>
-    </row>
-    <row r="123" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B123" s="7"/>
-      <c r="C123" s="8"/>
-    </row>
-    <row r="124" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B124" s="7"/>
-      <c r="C124" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Give at least two examples" sqref="C2:C11 C14:C23 C26:C35 C38:C47 C50:C59 C62:C71 C74:C83 C86:C95 C98:C107 C110:C119"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Give at least two examples" sqref="C15:C24 C2:C11"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1480,7 +775,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B11 B14:B23 B26:B35 B38:B47 B50:B59 B62:B71 B74:B83 B86:B95 B98:B107 B110:B119</xm:sqref>
+          <xm:sqref>B2:B11 B15:B24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1503,7 +798,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1514,7 +809,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1525,7 +820,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1536,7 +831,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1547,7 +842,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
